--- a/рис/лабы/транспЗадача.xlsx
+++ b/рис/лабы/транспЗадача.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\221b\Desktop\homework2\рис\лабы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\homework2\рис\лабы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36989A20-E7E7-48B5-B1E7-8B8E4DCF5F6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84C4B33-3B01-4F07-B556-1551A4481035}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -479,22 +479,22 @@
   <dimension ref="A3:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C6" s="3">
         <v>7</v>
       </c>
@@ -514,7 +514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -534,7 +534,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -558,7 +558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>10</v>
       </c>
@@ -582,7 +582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>10</v>
       </c>
@@ -602,18 +602,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13">
         <f>SUM(C14:C17)</f>
         <v>7</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="C13:F13" si="0">SUM(D14:D17)</f>
+        <f t="shared" ref="D13:F13" si="0">SUM(D14:D17)</f>
         <v>7</v>
       </c>
       <c r="E13">
@@ -629,7 +629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14">
         <f>SUM(C14:G14)</f>
         <v>4</v>
@@ -654,7 +654,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15">
         <f>SUM(C15:G15)</f>
         <v>6</v>
@@ -678,9 +678,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16">
-        <f t="shared" ref="B15:B17" si="1">SUM(C16:G16)</f>
+        <f t="shared" ref="B16:B17" si="1">SUM(C16:G16)</f>
         <v>10</v>
       </c>
       <c r="C16" s="5">
@@ -699,7 +699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17">
         <f t="shared" si="1"/>
         <v>10</v>
